--- a/sputnik/personal/ee/122ee.xlsx
+++ b/sputnik/personal/ee/122ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,13 +24,7 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
-  </si>
-  <si>
-    <t>Сумма оплаты</t>
   </si>
   <si>
     <t>Дата оплаты</t>
@@ -42,10 +36,22 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>?</t>
+    <t>День/ ночь</t>
   </si>
   <si>
-    <t>нет показаний</t>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -53,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,20 +91,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -113,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -151,24 +144,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -177,34 +180,29 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -512,644 +510,577 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F2:F3"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>43866</v>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>43627</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15">
-        <v>9863</v>
-      </c>
-      <c r="D2" s="3">
-        <f t="shared" ref="D2:D7" si="0">SUM(C2,-C4)</f>
-        <v>1260</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="C2" s="13">
+        <v>5452</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
+        <v>2682</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>43655</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
+        <v>5713</v>
+      </c>
+      <c r="D4" s="3">
+        <f>SUM(C4,-C2)</f>
+        <v>261</v>
+      </c>
+      <c r="E4" s="7">
         <v>4.49</v>
       </c>
-      <c r="F2" s="6">
-        <f t="shared" ref="F2:F7" si="1">D2*E2</f>
-        <v>5657.4000000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="10" t="s">
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F19" si="0">D4*E4</f>
+        <v>1171.8900000000001</v>
+      </c>
+      <c r="G4" s="15">
+        <f>SUM(F4,F5)</f>
+        <v>1414.89</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1491.77</v>
+      </c>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15">
-        <v>4742</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" si="0"/>
-        <v>611</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F3" s="11">
-        <f t="shared" si="1"/>
-        <v>1484.73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <v>43833</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="18">
-        <v>8603</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>829</v>
-      </c>
-      <c r="E4" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" si="1"/>
-        <v>3722.21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="18">
-        <v>4131</v>
+      <c r="C5" s="13">
+        <v>2782</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>393</v>
+        <f t="shared" ref="D5:D19" si="1">SUM(C5,-C3)</f>
+        <v>100</v>
       </c>
       <c r="E5" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F5" s="11">
-        <f t="shared" si="1"/>
-        <v>954.99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>43808</v>
-      </c>
-      <c r="B6" s="19" t="s">
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
+        <v>243.00000000000003</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>43682</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="18">
-        <v>7774</v>
+      <c r="C6" s="13">
+        <v>5968</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>782</v>
-      </c>
-      <c r="E6" s="8">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="E6" s="7">
         <v>4.49</v>
       </c>
-      <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>3511.1800000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="20" t="s">
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>1144.95</v>
+      </c>
+      <c r="G6" s="15">
+        <f>SUM(F6,F7)</f>
+        <v>1356.3600000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1086.96</v>
+      </c>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="18">
-        <v>3738</v>
+      <c r="C7" s="13">
+        <v>2869</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>404</v>
+        <f t="shared" si="1"/>
+        <v>87</v>
       </c>
       <c r="E7" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F7" s="11">
-        <f t="shared" si="1"/>
-        <v>981.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
-        <v>43774</v>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>211.41000000000003</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>43724</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="18">
-        <v>6992</v>
+      <c r="C8" s="13">
+        <v>6107</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:D17" si="2">SUM(C8,-C10)</f>
-        <v>444</v>
-      </c>
-      <c r="E8" s="8">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
+      <c r="E8" s="7">
         <v>4.49</v>
       </c>
-      <c r="F8" s="6">
-        <f t="shared" ref="F8:F19" si="3">D8*E8</f>
-        <v>1993.5600000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="10" t="s">
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>624.11</v>
+      </c>
+      <c r="G8" s="15">
+        <f>SUM(F8,F9)</f>
+        <v>857.3900000000001</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1090.67</v>
+      </c>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="18">
-        <v>3334</v>
+      <c r="C9" s="13">
+        <v>2965</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="2"/>
-        <v>197</v>
+        <f t="shared" si="1"/>
+        <v>96</v>
       </c>
       <c r="E9" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F9" s="11">
-        <f t="shared" si="3"/>
-        <v>478.71000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>233.28000000000003</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>43752</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="13">
         <v>6548</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>441</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>4.49</v>
       </c>
-      <c r="F10" s="6">
-        <f t="shared" si="3"/>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
         <v>1980.0900000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="10" t="s">
+      <c r="G10" s="15">
+        <f>SUM(F10,F11)</f>
+        <v>2398.0500000000002</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2398.0500000000002</v>
+      </c>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="13">
         <v>3137</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>172</v>
       </c>
       <c r="E11" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F11" s="11">
-        <f t="shared" si="3"/>
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
         <v>417.96000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
-        <v>43724</v>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>43774</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="18">
-        <v>6107</v>
+      <c r="C12" s="13">
+        <v>6992</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="2"/>
-        <v>139</v>
-      </c>
-      <c r="E12" s="8">
+        <f t="shared" si="1"/>
+        <v>444</v>
+      </c>
+      <c r="E12" s="7">
         <v>4.49</v>
       </c>
-      <c r="F12" s="6">
-        <f t="shared" si="3"/>
-        <v>624.11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="10" t="s">
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>1993.5600000000002</v>
+      </c>
+      <c r="G12" s="15">
+        <f>SUM(F12,F13)</f>
+        <v>2472.2700000000004</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2472.27</v>
+      </c>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="18">
-        <v>2965</v>
+      <c r="C13" s="13">
+        <v>3334</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="2"/>
-        <v>96</v>
+        <f t="shared" si="1"/>
+        <v>197</v>
       </c>
       <c r="E13" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F13" s="11">
-        <f t="shared" si="3"/>
-        <v>233.28000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
-        <v>43682</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>478.71000000000004</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>43808</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="18">
-        <v>5968</v>
+      <c r="C14" s="13">
+        <v>7774</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-      <c r="E14" s="8">
+        <f t="shared" si="1"/>
+        <v>782</v>
+      </c>
+      <c r="E14" s="7">
         <v>4.49</v>
       </c>
-      <c r="F14" s="6">
-        <f t="shared" si="3"/>
-        <v>1144.95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="10" t="s">
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>3511.1800000000003</v>
+      </c>
+      <c r="G14" s="15">
+        <f>SUM(F14,F15)</f>
+        <v>4492.9000000000005</v>
+      </c>
+      <c r="H14" s="2">
+        <v>4476.74</v>
+      </c>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="18">
-        <v>2869</v>
+      <c r="C15" s="13">
+        <v>3738</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="2"/>
-        <v>87</v>
+        <f t="shared" si="1"/>
+        <v>404</v>
       </c>
       <c r="E15" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F15" s="11">
-        <f t="shared" si="3"/>
-        <v>211.41000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
-        <v>43655</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="F15" s="9">
+        <f t="shared" si="0"/>
+        <v>981.72</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>43833</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="18">
-        <v>5713</v>
+      <c r="C16" s="13">
+        <v>8603</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="2"/>
-        <v>261</v>
-      </c>
-      <c r="E16" s="8">
+        <f t="shared" si="1"/>
+        <v>829</v>
+      </c>
+      <c r="E16" s="7">
         <v>4.49</v>
       </c>
-      <c r="F16" s="6">
-        <f t="shared" si="3"/>
-        <v>1171.8900000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="10" t="s">
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>3722.21</v>
+      </c>
+      <c r="G16" s="15">
+        <f>SUM(F16,F17)</f>
+        <v>4677.2</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4677.2</v>
+      </c>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="18">
-        <v>2782</v>
+      <c r="C17" s="13">
+        <v>4131</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>393</v>
       </c>
       <c r="E17" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>954.99</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>43866</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13">
+        <v>9863</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="1"/>
+        <v>1260</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
+        <v>5657.4000000000005</v>
+      </c>
+      <c r="G18" s="15">
+        <f>SUM(F18,F19)</f>
+        <v>7142.130000000001</v>
+      </c>
+      <c r="H18" s="2">
+        <v>7142.13</v>
+      </c>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13">
+        <v>4742</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="1"/>
+        <v>611</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="17">
+        <f t="shared" si="0"/>
+        <v>1484.73</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>43903</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="13">
+        <v>10911</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="2">SUM(C20,-C18)</f>
+        <v>1048</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20:F21" si="3">D20*E20</f>
+        <v>4705.5200000000004</v>
+      </c>
+      <c r="G20" s="15">
+        <f>SUM(F20,F21)</f>
+        <v>6020.1500000000005</v>
+      </c>
+      <c r="H20" s="2">
+        <v>6020.15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13">
+        <v>5283</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="2"/>
+        <v>541</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F21" s="17">
         <f t="shared" si="3"/>
-        <v>243.00000000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
-        <v>43627</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="18">
-        <v>5452</v>
-      </c>
-      <c r="D18" s="3">
-        <f>SUM(C18,-C20)</f>
-        <v>366</v>
-      </c>
-      <c r="E18" s="8">
-        <v>4.57</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" si="3"/>
-        <v>1672.6200000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="18">
-        <v>2682</v>
-      </c>
-      <c r="D19" s="3">
-        <f>SUM(C19,-C21)</f>
-        <v>169</v>
-      </c>
-      <c r="E19" s="10">
-        <v>2.39</v>
-      </c>
-      <c r="F19" s="11">
-        <f t="shared" si="3"/>
-        <v>403.91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <v>43593</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>5086</v>
-      </c>
-      <c r="D20" s="3">
-        <f>SUM(C20,-C22)</f>
-        <v>255</v>
-      </c>
-      <c r="E20" s="8">
-        <v>4.57</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" ref="F20:F25" si="4">D20*E20</f>
-        <v>1165.3500000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="10">
-        <v>2513</v>
-      </c>
-      <c r="D21" s="3">
-        <f>SUM(C21,-C23)</f>
-        <v>123</v>
-      </c>
-      <c r="E21" s="10">
-        <v>2.39</v>
-      </c>
-      <c r="F21" s="11">
-        <f t="shared" si="4"/>
-        <v>293.97000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
-        <v>43558</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>4831</v>
-      </c>
-      <c r="D22" s="3">
-        <v>504</v>
-      </c>
-      <c r="E22" s="8">
-        <v>4.57</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" si="4"/>
-        <v>2303.2800000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="10">
-        <v>2390</v>
-      </c>
-      <c r="D23" s="10">
-        <v>293</v>
-      </c>
-      <c r="E23" s="10">
-        <v>2.39</v>
-      </c>
-      <c r="F23" s="11">
-        <f t="shared" si="4"/>
-        <v>700.27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>43524</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>4327</v>
-      </c>
-      <c r="D24" s="3">
-        <v>553</v>
-      </c>
-      <c r="E24" s="8">
-        <v>4.57</v>
-      </c>
-      <c r="F24" s="6">
-        <f t="shared" si="4"/>
-        <v>2527.21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3">
-        <v>2097</v>
-      </c>
-      <c r="D25" s="3">
-        <v>301</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2.39</v>
-      </c>
-      <c r="F25" s="6">
-        <f t="shared" si="4"/>
-        <v>719.39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>43502</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3">
-        <v>3774</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="8">
-        <v>4.57</v>
-      </c>
-      <c r="F26" s="6">
-        <v>6608.43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1796</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="3">
-        <v>2.39</v>
-      </c>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>43475</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="8">
-        <v>4.57</v>
-      </c>
-      <c r="F28" s="6">
-        <v>5606.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3">
-        <v>2.39</v>
-      </c>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>43435</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1579</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3">
-        <v>845</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="6"/>
+        <v>1314.63</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="15">
+        <f>SUM(G2:G20)</f>
+        <v>30831.340000000004</v>
+      </c>
+      <c r="H22" s="15">
+        <f>SUM(H2:H20)</f>
+        <v>30855.940000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="15">
+        <f>SUM(H22,-G22)</f>
+        <v>24.599999999998545</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/122ee.xlsx
+++ b/sputnik/personal/ee/122ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -161,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -203,6 +203,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -510,10 +511,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -614,7 +615,7 @@
         <f>SUM(F4,F5)</f>
         <v>1414.89</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="15">
         <v>1491.77</v>
       </c>
       <c r="I4" s="16"/>
@@ -639,7 +640,7 @@
         <v>243.00000000000003</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -667,7 +668,7 @@
         <f>SUM(F6,F7)</f>
         <v>1356.3600000000001</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="15">
         <v>1086.96</v>
       </c>
       <c r="I6" s="16"/>
@@ -692,7 +693,7 @@
         <v>211.41000000000003</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -720,7 +721,7 @@
         <f>SUM(F8,F9)</f>
         <v>857.3900000000001</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="15">
         <v>1090.67</v>
       </c>
       <c r="I8" s="16"/>
@@ -745,7 +746,7 @@
         <v>233.28000000000003</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -773,7 +774,7 @@
         <f>SUM(F10,F11)</f>
         <v>2398.0500000000002</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="15">
         <v>2398.0500000000002</v>
       </c>
       <c r="I10" s="16"/>
@@ -798,7 +799,7 @@
         <v>417.96000000000004</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
@@ -825,7 +826,7 @@
         <f>SUM(F12,F13)</f>
         <v>2472.2700000000004</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="15">
         <v>2472.27</v>
       </c>
       <c r="I12" s="16"/>
@@ -850,7 +851,7 @@
         <v>478.71000000000004</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
@@ -877,7 +878,7 @@
         <f>SUM(F14,F15)</f>
         <v>4492.9000000000005</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="15">
         <v>4476.74</v>
       </c>
       <c r="I14" s="16"/>
@@ -902,7 +903,7 @@
         <v>981.72</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
@@ -929,7 +930,7 @@
         <f>SUM(F16,F17)</f>
         <v>4677.2</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="15">
         <v>4677.2</v>
       </c>
       <c r="I16" s="16"/>
@@ -954,7 +955,7 @@
         <v>954.99</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
@@ -981,7 +982,7 @@
         <f>SUM(F18,F19)</f>
         <v>7142.130000000001</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="15">
         <v>7142.13</v>
       </c>
       <c r="I18" s="16"/>
@@ -1006,7 +1007,7 @@
         <v>1484.73</v>
       </c>
       <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
@@ -1033,7 +1034,7 @@
         <f>SUM(F20,F21)</f>
         <v>6020.1500000000005</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="15">
         <v>6020.15</v>
       </c>
     </row>
@@ -1057,29 +1058,80 @@
         <v>1314.63</v>
       </c>
       <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
+      <c r="A22" s="11">
+        <v>43945</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="13">
+        <v>11977</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="4">SUM(C22,-C20)</f>
+        <v>1066</v>
+      </c>
+      <c r="E22" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" ref="F22:F23" si="5">D22*E22</f>
+        <v>4786.34</v>
+      </c>
+      <c r="G22" s="15">
+        <f>SUM(F22,F23)</f>
+        <v>6154.43</v>
+      </c>
+      <c r="H22" s="15">
+        <v>6131.91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="13">
+        <v>5846</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="4"/>
+        <v>563</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F23" s="17">
+        <f t="shared" si="5"/>
+        <v>1368.0900000000001</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="15">
-        <f>SUM(G2:G20)</f>
-        <v>30831.340000000004</v>
-      </c>
-      <c r="H22" s="15">
-        <f>SUM(H2:H20)</f>
-        <v>30855.940000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F23" s="2" t="s">
+      <c r="G24" s="15">
+        <f>SUM(G2:G23)</f>
+        <v>36985.770000000004</v>
+      </c>
+      <c r="H24" s="15">
+        <f>SUM(H2:H23)</f>
+        <v>36987.850000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="15">
-        <f>SUM(H22,-G22)</f>
-        <v>24.599999999998545</v>
+      <c r="G25" s="2"/>
+      <c r="H25" s="15">
+        <f>SUM(H24,-G24)</f>
+        <v>2.0800000000017462</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/122ee.xlsx
+++ b/sputnik/personal/ee/122ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -511,10 +511,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1112,26 +1112,77 @@
       <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F24" s="2" t="s">
+      <c r="A24" s="11">
+        <v>43964</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="13">
+        <v>12993</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:D25" si="6">SUM(C24,-C22)</f>
+        <v>1016</v>
+      </c>
+      <c r="E24" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" ref="F24:F25" si="7">D24*E24</f>
+        <v>4561.84</v>
+      </c>
+      <c r="G24" s="15">
+        <f>SUM(F24,F25)</f>
+        <v>5854.6</v>
+      </c>
+      <c r="H24" s="15">
+        <v>5833.32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="13">
+        <v>6378</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="6"/>
+        <v>532</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F25" s="17">
+        <f t="shared" si="7"/>
+        <v>1292.76</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="15">
-        <f>SUM(G2:G23)</f>
-        <v>36985.770000000004</v>
-      </c>
-      <c r="H24" s="15">
-        <f>SUM(H2:H23)</f>
-        <v>36987.850000000006</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F25" s="2" t="s">
+      <c r="G26" s="15">
+        <f>SUM(G4:G25)</f>
+        <v>42840.37</v>
+      </c>
+      <c r="H26" s="15">
+        <f>SUM(H4:H25)</f>
+        <v>42821.170000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="15">
-        <f>SUM(H24,-G24)</f>
-        <v>2.0800000000017462</v>
+      <c r="G27" s="2"/>
+      <c r="H27" s="15">
+        <f>SUM(H26,-G26)</f>
+        <v>-19.19999999999709</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/122ee.xlsx
+++ b/sputnik/personal/ee/122ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -511,10 +511,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1163,26 +1163,77 @@
       <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F26" s="2" t="s">
+      <c r="A26" s="11">
+        <v>43990</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="13">
+        <v>13644</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" ref="D26:D27" si="8">SUM(C26,-C24)</f>
+        <v>651</v>
+      </c>
+      <c r="E26" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" ref="F26:F27" si="9">D26*E26</f>
+        <v>2922.9900000000002</v>
+      </c>
+      <c r="G26" s="15">
+        <f>SUM(F26,F27)</f>
+        <v>3783.21</v>
+      </c>
+      <c r="H26" s="15">
+        <v>4038.45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="13">
+        <v>6732</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="8"/>
+        <v>354</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F27" s="17">
+        <f t="shared" si="9"/>
+        <v>860.22</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="15">
-        <f>SUM(G4:G25)</f>
-        <v>42840.37</v>
-      </c>
-      <c r="H26" s="15">
-        <f>SUM(H4:H25)</f>
-        <v>42821.170000000006</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F27" s="2" t="s">
+      <c r="G28" s="15">
+        <f>SUM(G2:G27)</f>
+        <v>46623.58</v>
+      </c>
+      <c r="H28" s="15">
+        <f>SUM(H2:H27)</f>
+        <v>46859.62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="15">
-        <f>SUM(H26,-G26)</f>
-        <v>-19.19999999999709</v>
+      <c r="G29" s="2"/>
+      <c r="H29" s="15">
+        <f>SUM(H28,-G28)</f>
+        <v>236.04000000000087</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/122ee.xlsx
+++ b/sputnik/personal/ee/122ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -511,10 +511,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1214,26 +1214,77 @@
       <c r="H27" s="19"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F28" s="2" t="s">
+      <c r="A28" s="11">
+        <v>44025</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="13">
+        <v>13818</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" ref="D28:D29" si="10">SUM(C28,-C26)</f>
+        <v>174</v>
+      </c>
+      <c r="E28" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" ref="F28:F29" si="11">D28*E28</f>
+        <v>781.26</v>
+      </c>
+      <c r="G28" s="15">
+        <f>SUM(F28,F29)</f>
+        <v>917.34</v>
+      </c>
+      <c r="H28" s="15">
+        <v>915.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="13">
+        <v>6788</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="10"/>
+        <v>56</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F29" s="17">
+        <f t="shared" si="11"/>
+        <v>136.08000000000001</v>
+      </c>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="15">
-        <f>SUM(G2:G27)</f>
-        <v>46623.58</v>
-      </c>
-      <c r="H28" s="15">
-        <f>SUM(H2:H27)</f>
-        <v>46859.62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F29" s="2" t="s">
+      <c r="G30" s="15">
+        <f>SUM(G2:G29)</f>
+        <v>47540.92</v>
+      </c>
+      <c r="H30" s="15">
+        <f>SUM(H2:H29)</f>
+        <v>47774.720000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="15">
-        <f>SUM(H28,-G28)</f>
-        <v>236.04000000000087</v>
+      <c r="G31" s="2"/>
+      <c r="H31" s="15">
+        <f>SUM(H30,-G30)</f>
+        <v>233.80000000000291</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/122ee.xlsx
+++ b/sputnik/personal/ee/122ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -511,10 +511,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1265,26 +1265,77 @@
       <c r="H29" s="19"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F30" s="2" t="s">
+      <c r="A30" s="11">
+        <v>44054</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="13">
+        <v>14029</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" ref="D30:D31" si="12">SUM(C30,-C28)</f>
+        <v>211</v>
+      </c>
+      <c r="E30" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" ref="F30:F31" si="13">D30*E30</f>
+        <v>993.81</v>
+      </c>
+      <c r="G30" s="15">
+        <f>SUM(F30,F31)</f>
+        <v>1116.21</v>
+      </c>
+      <c r="H30" s="15">
+        <v>1062.1099999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="13">
+        <v>6836</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="12"/>
+        <v>48</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F31" s="17">
+        <f t="shared" si="13"/>
+        <v>122.39999999999999</v>
+      </c>
+      <c r="G31" s="18"/>
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="15">
-        <f>SUM(G2:G29)</f>
-        <v>47540.92</v>
-      </c>
-      <c r="H30" s="15">
-        <f>SUM(H2:H29)</f>
-        <v>47774.720000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F31" s="2" t="s">
+      <c r="G32" s="15">
+        <f>SUM(G2:G30)</f>
+        <v>48657.13</v>
+      </c>
+      <c r="H32" s="15">
+        <f>SUM(H2:H30)</f>
+        <v>48836.83</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="15">
-        <f>SUM(H30,-G30)</f>
-        <v>233.80000000000291</v>
+      <c r="G33" s="2"/>
+      <c r="H33" s="15">
+        <f>SUM(H32,-G32)</f>
+        <v>179.70000000000437</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/122ee.xlsx
+++ b/sputnik/personal/ee/122ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -511,10 +511,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1316,26 +1316,77 @@
       <c r="H31" s="19"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F32" s="2" t="s">
+      <c r="A32" s="11">
+        <v>44096</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="13">
+        <v>14570</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" ref="D32:D33" si="14">SUM(C32,-C30)</f>
+        <v>541</v>
+      </c>
+      <c r="E32" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" ref="F32:F33" si="15">D32*E32</f>
+        <v>2548.11</v>
+      </c>
+      <c r="G32" s="15">
+        <f>SUM(F32,F33)</f>
+        <v>3032.61</v>
+      </c>
+      <c r="H32" s="15">
+        <v>2883.19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="13">
+        <v>7026</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="14"/>
+        <v>190</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F33" s="17">
+        <f t="shared" si="15"/>
+        <v>484.49999999999994</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="15">
-        <f>SUM(G2:G30)</f>
-        <v>48657.13</v>
-      </c>
-      <c r="H32" s="15">
-        <f>SUM(H2:H30)</f>
-        <v>48836.83</v>
-      </c>
-    </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F33" s="2" t="s">
+      <c r="G34" s="15">
+        <f>SUM(G2:G33)</f>
+        <v>51689.74</v>
+      </c>
+      <c r="H34" s="15">
+        <f>SUM(H2:H33)</f>
+        <v>51720.020000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="15">
-        <f>SUM(H32,-G32)</f>
-        <v>179.70000000000437</v>
+      <c r="G35" s="2"/>
+      <c r="H35" s="15">
+        <f>SUM(H34,-G34)</f>
+        <v>30.280000000006112</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/122ee.xlsx
+++ b/sputnik/personal/ee/122ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -511,10 +511,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1367,25 +1367,76 @@
       <c r="H33" s="19"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F34" s="2" t="s">
+      <c r="A34" s="11">
+        <v>44137</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="13">
+        <v>15480</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" ref="D34:D35" si="16">SUM(C34,-C32)</f>
+        <v>910</v>
+      </c>
+      <c r="E34" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" ref="F34:F35" si="17">D34*E34</f>
+        <v>4286.1000000000004</v>
+      </c>
+      <c r="G34" s="15">
+        <f>SUM(F34,F35)</f>
+        <v>5382.6</v>
+      </c>
+      <c r="H34" s="15">
+        <v>5382.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="13">
+        <v>7456</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="16"/>
+        <v>430</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F35" s="17">
+        <f t="shared" si="17"/>
+        <v>1096.5</v>
+      </c>
+      <c r="G35" s="18"/>
+      <c r="H35" s="19"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G36" s="15">
         <f>SUM(G2:G33)</f>
         <v>51689.74</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H36" s="15">
         <f>SUM(H2:H33)</f>
         <v>51720.020000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F35" s="2" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="15">
-        <f>SUM(H34,-G34)</f>
+      <c r="G37" s="2"/>
+      <c r="H37" s="15">
+        <f>SUM(H36,-G36)</f>
         <v>30.280000000006112</v>
       </c>
     </row>

--- a/sputnik/personal/ee/122ee.xlsx
+++ b/sputnik/personal/ee/122ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -496,10 +496,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -727,25 +727,178 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="2" t="s">
+      <c r="A10" s="8">
+        <v>44235</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10">
+        <v>19361</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="6">SUM(C10,-C8)</f>
+        <v>1639</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>7719.69</v>
+      </c>
+      <c r="G10" s="12">
+        <f>SUM(F10,F11)</f>
+        <v>9836.1899999999987</v>
+      </c>
+      <c r="H10" s="12">
+        <v>9836.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
+        <v>9398</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="6"/>
+        <v>830</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" si="7"/>
+        <v>2116.5</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>44264</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10">
+        <v>20671</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="8">SUM(C12,-C10)</f>
+        <v>1310</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
+        <v>6170.1</v>
+      </c>
+      <c r="G12" s="12">
+        <f>SUM(F12,F13)</f>
+        <v>7901.55</v>
+      </c>
+      <c r="H12" s="12">
+        <v>7888.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
+        <v>10077</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="8"/>
+        <v>679</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="13">
+        <f t="shared" si="9"/>
+        <v>1731.4499999999998</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>44299</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10">
+        <v>21890</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="10">SUM(C14,-C12)</f>
+        <v>1219</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
+        <v>5741.49</v>
+      </c>
+      <c r="G14" s="12">
+        <f>SUM(F14,F15)</f>
+        <v>7442.34</v>
+      </c>
+      <c r="H14" s="12">
+        <v>7455.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
+        <v>10744</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="10"/>
+        <v>667</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" si="11"/>
+        <v>1700.85</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G16" s="12">
         <f>SUM(G2:G3)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H16" s="12">
         <f>SUM(H2:H3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="2" t="s">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="12">
-        <f>SUM(H10,-G10)</f>
+      <c r="G17" s="2"/>
+      <c r="H17" s="12">
+        <f>SUM(H16,-G16)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/122ee.xlsx
+++ b/sputnik/personal/ee/122ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -61,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +86,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -154,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -189,6 +196,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -496,10 +504,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -880,26 +888,128 @@
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="2" t="s">
+      <c r="A16" s="8">
+        <v>44431</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10">
+        <v>23221</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="12">SUM(C16,-C14)</f>
+        <v>1331</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:F17" si="13">D16*E16</f>
+        <v>6601.76</v>
+      </c>
+      <c r="G16" s="16">
+        <f>SUM(F16,F17)</f>
+        <v>8705.5600000000013</v>
+      </c>
+      <c r="H16" s="16">
+        <v>8270.76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
+        <v>11529</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="12"/>
+        <v>785</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" si="13"/>
+        <v>2103.8000000000002</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>44435</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="10">
+        <v>23674</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="14">SUM(C18,-C16)</f>
+        <v>453</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ref="F18:F19" si="15">D18*E18</f>
+        <v>2246.88</v>
+      </c>
+      <c r="G18" s="12">
+        <f>SUM(F18,F19)</f>
+        <v>2705.1600000000003</v>
+      </c>
+      <c r="H18" s="12">
+        <v>2705.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
+        <v>11700</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="14"/>
+        <v>171</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="15"/>
+        <v>458.28000000000003</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="12">
-        <f>SUM(G2:G3)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="12">
-        <f>SUM(H2:H3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="2" t="s">
+      <c r="G20" s="12">
+        <f>SUM(G2:G19)</f>
+        <v>55368.820000000007</v>
+      </c>
+      <c r="H20" s="12">
+        <f>SUM(H2:H19)</f>
+        <v>54934.020000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="12">
-        <f>SUM(H16,-G16)</f>
-        <v>0</v>
+      <c r="G21" s="2"/>
+      <c r="H21" s="12">
+        <f>SUM(H20,-G20)</f>
+        <v>-434.80000000000291</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/122ee.xlsx
+++ b/sputnik/personal/ee/122ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -504,10 +504,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -990,25 +990,76 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
+      <c r="A20" s="8">
+        <v>44480</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="10">
+        <v>24628</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="16">SUM(C20,-C18)</f>
+        <v>954</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20:F21" si="17">D20*E20</f>
+        <v>4731.84</v>
+      </c>
+      <c r="G20" s="12">
+        <f>SUM(F20,F21)</f>
+        <v>6055.76</v>
+      </c>
+      <c r="H20" s="12">
+        <v>6055.76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10">
+        <v>12194</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="16"/>
+        <v>494</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" si="17"/>
+        <v>1323.92</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G22" s="12">
         <f>SUM(G2:G19)</f>
         <v>55368.820000000007</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H22" s="12">
         <f>SUM(H2:H19)</f>
         <v>54934.020000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="12">
-        <f>SUM(H20,-G20)</f>
+      <c r="G23" s="2"/>
+      <c r="H23" s="12">
+        <f>SUM(H22,-G22)</f>
         <v>-434.80000000000291</v>
       </c>
     </row>

--- a/sputnik/personal/ee/122ee.xlsx
+++ b/sputnik/personal/ee/122ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -504,10 +504,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1041,26 +1041,77 @@
       <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
+      <c r="A22" s="8">
+        <v>44516</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="10">
+        <v>25231</v>
+      </c>
+      <c r="D22" s="3">
+        <f>SUM(C22,-C20)</f>
+        <v>603</v>
+      </c>
+      <c r="E22" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" ref="F22:F23" si="18">D22*E22</f>
+        <v>2990.88</v>
+      </c>
+      <c r="G22" s="16">
+        <f>SUM(F22,F23)</f>
+        <v>3819</v>
+      </c>
+      <c r="H22" s="16">
+        <v>3118.08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10">
+        <v>12503</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" ref="D22:D23" si="19">SUM(C23,-C21)</f>
+        <v>309</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F23" s="13">
+        <f t="shared" si="18"/>
+        <v>828.12</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="12">
-        <f>SUM(G2:G19)</f>
-        <v>55368.820000000007</v>
-      </c>
-      <c r="H22" s="12">
-        <f>SUM(H2:H19)</f>
-        <v>54934.020000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2" t="s">
+      <c r="G24" s="12">
+        <f>SUM(G2:G23)</f>
+        <v>65243.580000000009</v>
+      </c>
+      <c r="H24" s="12">
+        <f>SUM(H2:H23)</f>
+        <v>64107.860000000008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="12">
-        <f>SUM(H22,-G22)</f>
-        <v>-434.80000000000291</v>
+      <c r="G25" s="2"/>
+      <c r="H25" s="12">
+        <f>SUM(H24,-G24)</f>
+        <v>-1135.7200000000012</v>
       </c>
     </row>
   </sheetData>
